--- a/results/daily_pic/stats_daily.xlsx
+++ b/results/daily_pic/stats_daily.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -495,7 +495,7 @@
         <v>0.2849589023715974</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4509770900000001</v>
+        <v>0.4509770833333333</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>0.5788516466426887</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6699451585250672</v>
+        <v>0.6699451647881032</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         <v>0.1095818787638278</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1482809990508</v>
+        <v>0.148281</v>
       </c>
     </row>
     <row r="5">
@@ -579,7 +579,7 @@
         <v>0.1893090905059998</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2213330407182155</v>
+        <v>0.2213330400658982</v>
       </c>
     </row>
   </sheetData>
